--- a/doc/04_外部設計書_持ちつ持たれつ.xlsx
+++ b/doc/04_外部設計書_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0A41C3-E12F-4652-B6BD-80508EBDF41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDB547-2355-43B2-98A3-26B470B4C163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="195" windowWidth="17055" windowHeight="10530" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21975" yWindow="-1410" windowWidth="19275" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="トップ" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,19 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">設定変更ページ!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">褒めるポップアップ!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -840,15 +852,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,6 +863,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,8 +910,8 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -915,7 +927,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="317500" y="1127125"/>
-          <a:ext cx="10160000" cy="7239000"/>
+          <a:ext cx="10160000" cy="6365875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3010,8 +3022,12 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>中央のリスト部がクリックした日付</a:t>
+            <a:t>番の部分がクリックした日付</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -22929,8 +22945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BG19" sqref="BG19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AR44" sqref="AR44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27690,14 +27706,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="27"/>
       <c r="K2" s="41" t="s">
         <v>2</v>
@@ -27726,17 +27742,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="47" t="s">
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
@@ -27754,33 +27770,33 @@
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -32225,7 +32241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41D70F8-AAC7-4410-A191-2D4921BD25DD}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -32286,14 +32302,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="27"/>
       <c r="K2" s="41" t="s">
         <v>2</v>
@@ -32320,17 +32336,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="47" t="s">
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
@@ -32348,33 +32364,33 @@
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -36751,7 +36767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DF9F88-16DF-4DFF-BD68-226EDB7AD30C}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="BG25" sqref="BG25"/>
     </sheetView>
   </sheetViews>
@@ -36814,14 +36830,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="27"/>
       <c r="K2" s="41" t="s">
         <v>2</v>
@@ -36848,17 +36864,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="47" t="s">
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
@@ -36876,33 +36892,33 @@
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -41342,14 +41358,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="27"/>
       <c r="K2" s="41" t="s">
         <v>2</v>
@@ -41376,17 +41392,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="47" t="s">
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
@@ -41404,33 +41420,33 @@
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -45807,7 +45823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BF18E0-0F81-4425-875A-889E3398166B}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AU30" sqref="AU30"/>
     </sheetView>
   </sheetViews>
@@ -50473,6 +50489,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -50480,14 +50503,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -50566,14 +50582,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="27"/>
       <c r="K2" s="41" t="s">
         <v>2</v>
@@ -50600,17 +50616,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="47" t="s">
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
@@ -50628,33 +50644,33 @@
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -55001,6 +55017,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -55008,14 +55031,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -55094,14 +55110,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="27"/>
       <c r="K2" s="41" t="s">
         <v>2</v>
@@ -55128,17 +55144,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="47" t="s">
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
@@ -55156,33 +55172,33 @@
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -59529,6 +59545,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -59536,14 +59559,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/04_外部設計書_持ちつ持たれつ.xlsx
+++ b/doc/04_外部設計書_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A86E21-5F25-4117-A03A-90DA9A26B0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07D95CA-2A41-4201-8756-24EAD482FF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="525" windowWidth="18765" windowHeight="10275" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="トップ_各機能の詳細" sheetId="12" r:id="rId1"/>
@@ -808,6 +808,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,6 +865,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,30 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,13 +907,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5130,7 +5130,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2615139" cy="1092800"/>
+    <xdr:ext cx="2615139" cy="1426288"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="テキスト ボックス 53">
@@ -5144,8 +5144,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12001500" y="3371850"/>
-          <a:ext cx="2615139" cy="1092800"/>
+          <a:off x="11825968" y="3371850"/>
+          <a:ext cx="2615139" cy="1426288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5197,6 +5197,13 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>トロフィーの一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ログアウト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5543,6 +5550,130 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
             <a:t>（ソートは時間が余ったら）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF7A50A-B878-C147-A2C0-60C8987C066A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13090071" y="4599214"/>
+          <a:ext cx="2612572" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9585650-87D8-695F-4AFF-412F07EF3540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16630650" y="4629150"/>
+          <a:ext cx="3276600" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ログアウトを押すと</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ログイン画面に戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9219,7 +9350,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2615139" cy="1092800"/>
+    <xdr:ext cx="2615139" cy="1426288"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="テキスト ボックス 19">
@@ -9233,8 +9364,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12001500" y="3371850"/>
-          <a:ext cx="2615139" cy="1092800"/>
+          <a:off x="11825968" y="3371850"/>
+          <a:ext cx="2615139" cy="1426288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9286,6 +9417,13 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>トロフィーの一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ログアウト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14931,8 +15069,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14947,8 +15085,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905000" y="4695825"/>
-          <a:ext cx="6391275" cy="2000250"/>
+          <a:off x="1866900" y="4695825"/>
+          <a:ext cx="6238875" cy="384175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15021,64 +15159,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>の設定：</a:t>
+            <a:t>の設定</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" i="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" i="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・給料　毎月〇日</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" i="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・休日　毎週土日</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" i="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・〇〇提出</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15453,64 +15540,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="493661" cy="492443"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403D1841-389E-47D4-A16A-C36F436C3932}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7753350" y="4629150"/>
-          <a:ext cx="493661" cy="492443"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
-            <a:t>＋</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
@@ -15722,6 +15751,322 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000"/>
             <a:t>省略</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF11FA7-40A0-75ED-6262-3478E23F1CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="5207000"/>
+          <a:ext cx="6159500" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>給料日：　毎月　　　日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>休日：　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> □月　□火　□水　□木　□金　□土　□日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>誕生日：　　　　月　　　日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6093939-07E4-5BEA-D50E-CD5E77259A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3317875" y="5413375"/>
+          <a:ext cx="317500" cy="269875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7FF870-D7C0-4A6B-B55E-60504182BB35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="5946775"/>
+          <a:ext cx="317500" cy="269875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0CF579-0515-464F-A0AE-165296A9000A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="5956300"/>
+          <a:ext cx="317500" cy="269875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23387,8 +23732,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BW27" sqref="BW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23397,156 +23742,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="54">
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="27">
         <v>44720</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="29"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="47"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -28047,6 +28392,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -28054,14 +28406,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -28080,8 +28425,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ73" sqref="AZ73"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BF20" sqref="BF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28090,156 +28435,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="54">
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="27">
         <v>44720</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="29"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="47"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -32725,156 +33070,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="51" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="54">
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="27">
         <v>44720</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="50"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -37272,7 +37617,7 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
@@ -37282,154 +37627,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="55">
         <v>44720</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="29"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="47"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -41924,7 +42269,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AV31" sqref="AV31"/>
+      <selection activeCell="AU33" sqref="AU33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41933,152 +42278,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="55">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="56">
         <v>44720</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="51" t="s">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="50"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -46458,7 +46803,7 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BF18" sqref="BF18"/>
     </sheetView>
   </sheetViews>
@@ -46468,152 +46813,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="55">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="56">
         <v>44720</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="51" t="s">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="50"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -51003,156 +51348,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="51" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="54">
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="27">
         <v>44720</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="50"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -55542,152 +55887,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="55">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="56">
         <v>44720</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="51" t="s">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="50"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -60067,7 +60412,7 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
@@ -60077,152 +60422,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="55">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="56">
         <v>44720</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="51" t="s">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="50"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -64569,6 +64914,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -64576,14 +64928,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
